--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_gha.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_gha.xlsx
@@ -1159,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.09716114864806</v>
+        <v>3.10354798654812</v>
       </c>
       <c r="C2">
-        <v>2.26850222045553</v>
+        <v>3.00716957270156</v>
       </c>
       <c r="D2">
-        <v>2.20643876318409</v>
+        <v>2.94690304701758</v>
       </c>
       <c r="E2">
-        <v>2.14302679838565</v>
+        <v>2.88510528649224</v>
       </c>
       <c r="F2">
-        <v>2.08071105581124</v>
+        <v>2.82014160497439</v>
       </c>
       <c r="G2">
-        <v>2.01894244459816</v>
+        <v>2.75287073726865</v>
       </c>
       <c r="H2">
-        <v>1.96857945548368</v>
+        <v>2.69817882024543</v>
       </c>
       <c r="I2">
-        <v>1.9178458584548</v>
+        <v>2.6389731524933</v>
       </c>
       <c r="J2">
-        <v>1.8696350023765</v>
+        <v>2.56349023216934</v>
       </c>
       <c r="K2">
-        <v>1.82627221396525</v>
+        <v>2.49613215981374</v>
       </c>
       <c r="L2">
-        <v>1.78352919513698</v>
+        <v>2.43064989288865</v>
       </c>
       <c r="M2">
-        <v>1.74072959493213</v>
+        <v>2.36460347390515</v>
       </c>
       <c r="N2">
-        <v>1.70088577059612</v>
+        <v>2.30317972328158</v>
       </c>
       <c r="O2">
-        <v>1.66151543058348</v>
+        <v>2.24346622684227</v>
       </c>
       <c r="P2">
-        <v>1.62809895429287</v>
+        <v>2.20030501446135</v>
       </c>
       <c r="Q2">
-        <v>1.59950067846816</v>
+        <v>2.15696357199331</v>
       </c>
       <c r="R2">
-        <v>1.57457938030034</v>
+        <v>2.11445119750999</v>
       </c>
       <c r="S2">
-        <v>1.55224001762924</v>
+        <v>2.07223914719882</v>
       </c>
       <c r="T2">
-        <v>1.53106943706377</v>
+        <v>2.02881287726105</v>
       </c>
       <c r="U2">
-        <v>1.51102685452539</v>
+        <v>1.98525450314717</v>
       </c>
       <c r="V2">
-        <v>1.49242160622155</v>
+        <v>1.94287211045012</v>
       </c>
       <c r="W2">
-        <v>1.47494847925231</v>
+        <v>1.90176718443768</v>
       </c>
       <c r="X2">
-        <v>1.45789351093967</v>
+        <v>1.96543247330021</v>
       </c>
       <c r="Y2">
-        <v>1.44072415047338</v>
+        <v>1.89972141449387</v>
       </c>
       <c r="Z2">
-        <v>1.42401975353949</v>
+        <v>1.89095822474344</v>
       </c>
       <c r="AA2">
-        <v>1.40786785691906</v>
+        <v>1.87561238816918</v>
       </c>
       <c r="AB2">
-        <v>1.39208242670097</v>
+        <v>1.8565186362491</v>
       </c>
       <c r="AC2">
-        <v>1.37660110083935</v>
+        <v>1.82819751353645</v>
       </c>
       <c r="AD2">
-        <v>1.41169237626811</v>
+        <v>1.80741658304996</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1251,91 +1251,91 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.039834258585499</v>
+        <v>0.0313409322222908</v>
       </c>
       <c r="C3">
-        <v>0.0388530223939147</v>
+        <v>0.018699291843799</v>
       </c>
       <c r="D3">
-        <v>0.041354960303177</v>
+        <v>0.0191760540566347</v>
       </c>
       <c r="E3">
-        <v>0.0439690857593848</v>
+        <v>0.0198847133875202</v>
       </c>
       <c r="F3">
-        <v>0.0466611094945732</v>
+        <v>0.0400846184128135</v>
       </c>
       <c r="G3">
-        <v>0.049458082389434</v>
+        <v>0.0422335147946413</v>
       </c>
       <c r="H3">
-        <v>0.0504834477014408</v>
+        <v>0.00646438908525399</v>
       </c>
       <c r="I3">
-        <v>0.0513692728455334</v>
+        <v>0.0434674315157966</v>
       </c>
       <c r="J3">
-        <v>0.0517608699362825</v>
+        <v>0.0439550282304448</v>
       </c>
       <c r="K3">
-        <v>0.0515391788487303</v>
+        <v>0.0158847247951362</v>
       </c>
       <c r="L3">
-        <v>0.0513935455199072</v>
+        <v>0.0439084622455677</v>
       </c>
       <c r="M3">
-        <v>0.0514727845625029</v>
+        <v>0.0441196934544119</v>
       </c>
       <c r="N3">
-        <v>0.0510982863976158</v>
+        <v>0.0439375148232456</v>
       </c>
       <c r="O3">
-        <v>0.0508681939049591</v>
+        <v>0.0438644809091209</v>
       </c>
       <c r="P3">
-        <v>0.0506731199473983</v>
+        <v>0.0436573516354835</v>
       </c>
       <c r="Q3">
-        <v>0.0503801919499948</v>
+        <v>0.0434994002553652</v>
       </c>
       <c r="R3">
-        <v>0.0500420359849369</v>
+        <v>0.043389405346385</v>
       </c>
       <c r="S3">
-        <v>0.0497062233844534</v>
+        <v>0.0433522459913651</v>
       </c>
       <c r="T3">
-        <v>0.0495841373785245</v>
+        <v>0.0435689897519907</v>
       </c>
       <c r="U3">
-        <v>0.0497026725821537</v>
+        <v>0.0440471251467885</v>
       </c>
       <c r="V3">
-        <v>0.0497369452827316</v>
+        <v>0.0444844530805848</v>
       </c>
       <c r="W3">
-        <v>0.0496981256917714</v>
+        <v>0.0448788112246069</v>
       </c>
       <c r="X3">
-        <v>0.0497218049421301</v>
+        <v>0.0429433968433717</v>
       </c>
       <c r="Y3">
-        <v>0.0499336111980919</v>
+        <v>0.0440926018196384</v>
       </c>
       <c r="Z3">
-        <v>0.0500650856906497</v>
+        <v>0.0438986208454777</v>
       </c>
       <c r="AA3">
-        <v>0.0500251245174397</v>
+        <v>0.0437208717379921</v>
       </c>
       <c r="AB3">
-        <v>0.0498586144769585</v>
+        <v>0.0435299007391934</v>
       </c>
       <c r="AC3">
-        <v>0.0496042321894515</v>
+        <v>0.0434896150465358</v>
       </c>
       <c r="AD3">
-        <v>0.0474887577851961</v>
+        <v>0.0431871375149134</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1343,91 +1343,91 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.0323442715418337</v>
+        <v>0.0254479349727624</v>
       </c>
       <c r="C4">
-        <v>0.0301600585216482</v>
+        <v>0.026490814000892</v>
       </c>
       <c r="D4">
-        <v>0.0309691001169591</v>
+        <v>0.0269983019443906</v>
       </c>
       <c r="E4">
-        <v>0.0318671789021195</v>
+        <v>0.0275607725688111</v>
       </c>
       <c r="F4">
-        <v>0.0328130267283663</v>
+        <v>0.0281883064852752</v>
       </c>
       <c r="G4">
-        <v>0.0338586773351378</v>
+        <v>0.0289127859608649</v>
       </c>
       <c r="H4">
-        <v>0.0342963869335924</v>
+        <v>0.0291348256245924</v>
       </c>
       <c r="I4">
-        <v>0.0348327332296688</v>
+        <v>0.0294746131743286</v>
       </c>
       <c r="J4">
-        <v>0.0352742310236138</v>
+        <v>0.0299546708229366</v>
       </c>
       <c r="K4">
-        <v>0.0354668757573563</v>
+        <v>0.0302136158256221</v>
       </c>
       <c r="L4">
-        <v>0.0356948090854844</v>
+        <v>0.0304961286721432</v>
       </c>
       <c r="M4">
-        <v>0.0360124995323314</v>
+        <v>0.0308679713638627</v>
       </c>
       <c r="N4">
-        <v>0.0361780479967584</v>
+        <v>0.0311081570870023</v>
       </c>
       <c r="O4">
-        <v>0.0363908636823348</v>
+        <v>0.0313804407571974</v>
       </c>
       <c r="P4">
-        <v>0.0365269900650238</v>
+        <v>0.0314697743322282</v>
       </c>
       <c r="Q4">
-        <v>0.0365833412581499</v>
+        <v>0.0315868864820203</v>
       </c>
       <c r="R4">
-        <v>0.0365796580341794</v>
+        <v>0.0317167273201057</v>
       </c>
       <c r="S4">
-        <v>0.0365439558216685</v>
+        <v>0.0318725192623277</v>
       </c>
       <c r="T4">
-        <v>0.0365497895599022</v>
+        <v>0.0321158638823572</v>
       </c>
       <c r="U4">
-        <v>0.0365809969624732</v>
+        <v>0.0324185334005339</v>
       </c>
       <c r="V4">
-        <v>0.0365727710412612</v>
+        <v>0.0327104873080497</v>
       </c>
       <c r="W4">
-        <v>0.0365288197607247</v>
+        <v>0.0329865560014608</v>
       </c>
       <c r="X4">
-        <v>0.0365016299615549</v>
+        <v>0.0315254842959408</v>
       </c>
       <c r="Y4">
-        <v>0.0365266868344851</v>
+        <v>0.0322539592018356</v>
       </c>
       <c r="Z4">
-        <v>0.0365233783030556</v>
+        <v>0.0320248315568394</v>
       </c>
       <c r="AA4">
-        <v>0.036481066097669</v>
+        <v>0.0318836590034945</v>
       </c>
       <c r="AB4">
-        <v>0.0364145568686369</v>
+        <v>0.031792340452742</v>
       </c>
       <c r="AC4">
-        <v>0.0363317613363796</v>
+        <v>0.0318532158394696</v>
       </c>
       <c r="AD4">
-        <v>0.0349414208648276</v>
+        <v>0.0317763639608899</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1435,91 +1435,89 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>0.316468760316635</v>
+        <v>0.0463794521954117</v>
       </c>
       <c r="C5">
-        <v>0.167011700627788</v>
+        <v>0.0985072037013798</v>
       </c>
       <c r="D5">
-        <v>0.109474650872857</v>
+        <v>0.107184627363446</v>
       </c>
       <c r="E5">
-        <v>0.0838317232726017</v>
+        <v>0.109786541518668</v>
       </c>
       <c r="F5">
-        <v>0.0724106727665744</v>
+        <v>0.116520031514193</v>
       </c>
       <c r="G5">
-        <v>0.0672799378693431</v>
+        <v>0.116108560211679</v>
       </c>
       <c r="H5">
-        <v>0.0647196012641917</v>
+        <v>0.113325273908676</v>
       </c>
       <c r="I5">
-        <v>0.0635524637886665</v>
+        <v>0.0393833937561046</v>
       </c>
       <c r="J5">
-        <v>0.0629974191840489</v>
+        <v>0.0401453144637491</v>
       </c>
       <c r="K5">
-        <v>0.0626798897885239</v>
+        <v>0.04175401186459</v>
       </c>
       <c r="L5">
-        <v>0.0625682993462138</v>
+        <v>0.0398753753242202</v>
       </c>
       <c r="M5">
-        <v>0.0626057682085277</v>
+        <v>0.0392934212420038</v>
       </c>
       <c r="N5">
-        <v>0.0631353389673768</v>
+        <v>0.0361109224087347</v>
       </c>
       <c r="O5">
-        <v>0.0759116287837682</v>
+        <v>0.123117898100226</v>
       </c>
       <c r="P5">
-        <v>0.0869414302461182</v>
+        <v>0.123994651265232</v>
       </c>
       <c r="Q5">
-        <v>0.0964347889574004</v>
+        <v>0.130916917731169</v>
       </c>
       <c r="R5">
-        <v>0.104548333014656</v>
+        <v>0.137183058812583</v>
       </c>
       <c r="S5">
-        <v>0.111433519089153</v>
+        <v>0.140217679120333</v>
       </c>
       <c r="T5">
-        <v>0.117185120390519</v>
+        <v>0.144092368892906</v>
       </c>
       <c r="U5">
-        <v>0.121953605044918</v>
+        <v>0.147957326906477</v>
       </c>
       <c r="V5">
-        <v>0.125967059069018</v>
+        <v>0.152164759858135</v>
       </c>
       <c r="W5">
-        <v>0.129338234276303</v>
-      </c>
-      <c r="X5">
-        <v>0.132130123574386</v>
-      </c>
+        <v>1.41939755306705</v>
+      </c>
+      <c r="X5"/>
       <c r="Y5">
-        <v>0.134398752113659</v>
+        <v>0.721765445678092</v>
       </c>
       <c r="Z5">
-        <v>0.136298613888582</v>
+        <v>0.714187365895147</v>
       </c>
       <c r="AA5">
-        <v>0.137913634297545</v>
+        <v>0.728078111853227</v>
       </c>
       <c r="AB5">
-        <v>0.139285576686955</v>
+        <v>0.0301776143424497</v>
       </c>
       <c r="AC5">
-        <v>0.378230069209397</v>
+        <v>0.750779919955991</v>
       </c>
       <c r="AD5">
-        <v>0.0991052672846653</v>
+        <v>0.222571215251492</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1527,91 +1525,91 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.548647290443968</v>
+        <v>0.263168319390465</v>
       </c>
       <c r="C6">
-        <v>0.39602478154335</v>
+        <v>0.303697309546071</v>
       </c>
       <c r="D6">
-        <v>0.341798711292993</v>
+        <v>0.313358983364471</v>
       </c>
       <c r="E6">
-        <v>0.319667987934106</v>
+        <v>0.317232027474999</v>
       </c>
       <c r="F6">
-        <v>0.311884808989514</v>
+        <v>0.344792956412281</v>
       </c>
       <c r="G6">
-        <v>0.310596697593915</v>
+        <v>0.347254860967185</v>
       </c>
       <c r="H6">
-        <v>0.309499435899225</v>
+        <v>0.308924488618523</v>
       </c>
       <c r="I6">
-        <v>0.309754469863869</v>
+        <v>0.27232543844623</v>
       </c>
       <c r="J6">
-        <v>0.310032520143945</v>
+        <v>0.274055013517131</v>
       </c>
       <c r="K6">
-        <v>0.309685944394611</v>
+        <v>0.247852352485348</v>
       </c>
       <c r="L6">
-        <v>0.309656653951605</v>
+        <v>0.274279966241931</v>
       </c>
       <c r="M6">
-        <v>0.310091052303362</v>
+        <v>0.274281086060278</v>
       </c>
       <c r="N6">
-        <v>0.310411673361751</v>
+        <v>0.271156594318983</v>
       </c>
       <c r="O6">
-        <v>0.323170686371062</v>
+        <v>0.358362819766544</v>
       </c>
       <c r="P6">
-        <v>0.33414154025854</v>
+        <v>0.359121777232943</v>
       </c>
       <c r="Q6">
-        <v>0.343398322165545</v>
+        <v>0.366003204468554</v>
       </c>
       <c r="R6">
-        <v>0.351170027033773</v>
+        <v>0.372289191479073</v>
       </c>
       <c r="S6">
-        <v>0.357683698295275</v>
+        <v>0.375442444374025</v>
       </c>
       <c r="T6">
-        <v>0.363319047328946</v>
+        <v>0.379777222527254</v>
       </c>
       <c r="U6">
-        <v>0.368237274589545</v>
+        <v>0.384422985453799</v>
       </c>
       <c r="V6">
-        <v>0.372276775393011</v>
+        <v>0.389359700246769</v>
       </c>
       <c r="W6">
-        <v>0.375565179728799</v>
+        <v>1.65726292029312</v>
       </c>
       <c r="X6">
-        <v>0.378353558478072</v>
+        <v>0.234468882224444</v>
       </c>
       <c r="Y6">
-        <v>0.380859050146236</v>
+        <v>0.958112006699566</v>
       </c>
       <c r="Z6">
-        <v>0.382887077882287</v>
+        <v>0.950110818297464</v>
       </c>
       <c r="AA6">
-        <v>0.384419824912654</v>
+        <v>0.963682642594714</v>
       </c>
       <c r="AB6">
-        <v>0.385558748032551</v>
+        <v>0.265499855534385</v>
       </c>
       <c r="AC6">
-        <v>0.624166062735228</v>
+        <v>0.986122750841997</v>
       </c>
       <c r="AD6">
-        <v>0.341535445934689</v>
+        <v>0.457534716727284</v>
       </c>
     </row>
   </sheetData>
